--- a/report/reliability/by-unidade/Instituto de Ciências Biológicas e da Saúde - ICBS.xlsx
+++ b/report/reliability/by-unidade/Instituto de Ciências Biológicas e da Saúde - ICBS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7571256630381525</v>
+        <v>0.7211274277593557</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7759053190069976</v>
+        <v>0.7590145961970362</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8859295843236736</v>
+        <v>0.880089732171258</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.2239238176626596</v>
+        <v>0.19502794352326078</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.462399533843583</v>
+        <v>3.149628916187916</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.030687202868960237</v>
+        <v>0.03319983570096986</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.5547945205479454</v>
+        <v>1.957850368809273</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7019702947075188</v>
+        <v>0.5849979337360777</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.166915138240351</v>
+        <v>0.13338419641337398</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.727017917580531</v>
+        <v>0.7230532569448884</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7416536908673201</v>
+        <v>0.7555426413652456</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8632250371269644</v>
+        <v>0.8799746706019085</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.20696562849004208</v>
+        <v>0.20480788928943808</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>2.870773317246913</v>
+        <v>3.0906929764143762</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.034553371649880475</v>
+        <v>0.03368940098873789</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.04158130261605734</v>
+        <v>0.055998267611821244</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.16198604759057147</v>
+        <v>0.13715520530946185</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.731251549138679</v>
+        <v>0.6943839578559892</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7483774019385628</v>
+        <v>0.735101765471332</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8691193074802244</v>
+        <v>0.8627921609206262</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.21283541105279097</v>
+        <v>0.18781916067199297</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>2.9742058451993096</v>
+        <v>2.7750345968869685</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.03408613306798682</v>
+        <v>0.036240630367060836</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.044728956856516254</v>
+        <v>0.054737693632263</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.16422921871357696</v>
+        <v>0.1171768382920613</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.730758412718906</v>
+        <v>0.6975554730647537</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7447476507996804</v>
+        <v>0.7349789810700106</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8625094888200893</v>
+        <v>0.8648924707139357</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.20963905023460727</v>
+        <v>0.18772300842031295</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>2.9176916613418107</v>
+        <v>2.773285621032835</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.03404735047093541</v>
+        <v>0.035895668198016074</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.040700148093681034</v>
+        <v>0.05609721649364733</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.16422921871357696</v>
+        <v>0.10871152778079854</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7307972254680941</v>
+        <v>0.7057663486986532</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7481574466798677</v>
+        <v>0.7362427793219648</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8640813250798915</v>
+        <v>0.8591060208076843</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.21263984120736493</v>
+        <v>0.18871587057994427</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>2.970734837368169</v>
+        <v>2.791365398184441</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.034068372118143585</v>
+        <v>0.03550670296542493</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.041656375378819215</v>
+        <v>0.04217119785911347</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.16795383128706645</v>
+        <v>0.13715520530946185</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7394791357913323</v>
+        <v>0.6805508414610714</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7656897530225393</v>
+        <v>0.7300149331053549</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8452887735850837</v>
+        <v>0.8549770199862239</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.22903568165954605</v>
+        <v>0.1838904634049513</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.2678457852344542</v>
+        <v>2.703908558728639</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.032828079273414947</v>
+        <v>0.03810747842475844</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.0379857532037326</v>
+        <v>0.041880005943911044</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.17418749208561798</v>
+        <v>0.12761338113754728</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7440790706692088</v>
+        <v>0.686067355734391</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7674857835607444</v>
+        <v>0.7319727351639301</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8468629750817158</v>
+        <v>0.8543009951754521</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.2308129233629173</v>
+        <v>0.1853893450994921</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.3008122914550895</v>
+        <v>2.7309637159921687</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.032239674131931684</v>
+        <v>0.03739315247386419</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.03774279845208268</v>
+        <v>0.041132250564953544</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.17974880464629814</v>
+        <v>0.13338419641337398</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7487666197497902</v>
+        <v>0.7188975523940563</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.772928152470588</v>
+        <v>0.7529926677095238</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8713276816462634</v>
+        <v>0.8758241230290189</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.2363175425549526</v>
+        <v>0.2025763596646985</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.4038924722734403</v>
+        <v>3.048462815767824</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.031843252533238164</v>
+        <v>0.034051250622391616</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.043391772278693154</v>
+        <v>0.05295730824774092</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.17974880464629814</v>
+        <v>0.13715520530946185</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7596658472883699</v>
+        <v>0.7046814156540125</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7765820009082314</v>
+        <v>0.745682442615107</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8741460657210506</v>
+        <v>0.8634569677266705</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.240117124924726</v>
+        <v>0.19636176204822556</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>3.4759151190377073</v>
+        <v>2.932091870820249</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.03040407527547982</v>
+        <v>0.0348635862299779</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.042552886969207684</v>
+        <v>0.051484230124229834</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.17669702907738344</v>
+        <v>0.1377435180063889</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7596849662943478</v>
+        <v>0.7173482943970542</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7759117016479934</v>
+        <v>0.7499413809678398</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8868581143537931</v>
+        <v>0.8710964507360994</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.23941367386404105</v>
+        <v>0.199949987025579</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.4625266350550854</v>
+        <v>2.9990623153501046</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.0305293072078679</v>
+        <v>0.03315846498252208</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.04464413695871423</v>
+        <v>0.05238997429154596</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.16795383128706645</v>
+        <v>0.13886406750892116</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7401397629038833</v>
+        <v>0.726357791309909</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7608171365849795</v>
+        <v>0.7628986461771359</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8794438678968433</v>
+        <v>0.8823615785233562</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.22430883710479546</v>
+        <v>0.2114396766737565</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.1809015316655014</v>
+        <v>3.2176056099076074</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.032970252473126835</v>
+        <v>0.03214289467627028</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.04789594095525336</v>
+        <v>0.054559815869296924</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.16587644519363556</v>
+        <v>0.13535339761231588</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7336344665327603</v>
+        <v>0.7063193964012072</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7539864443600299</v>
+        <v>0.7500582900458599</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8621378470641197</v>
+        <v>0.8771552320642322</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.2179066201511939</v>
+        <v>0.20004974934548267</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.0648166618243393</v>
+        <v>3.0009328582391586</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.033762517586589796</v>
+        <v>0.03472571970917641</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.04527595254067604</v>
+        <v>0.05836589282762002</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.16261938659700262</v>
+        <v>0.13338419641337398</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7426947360149424</v>
+        <v>0.6908944634841603</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7637046972232984</v>
+        <v>0.7390465772787828</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8690164336674927</v>
+        <v>0.8570838751670387</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.22709347734493748</v>
+        <v>0.19094404739710308</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.2319927152550987</v>
+        <v>2.83210148988283</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.03270735861979838</v>
+        <v>0.03669255412715617</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.04496507813124218</v>
+        <v>0.05533292934356962</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.16422921871357696</v>
+        <v>0.11119623355208941</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7000163711114749</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7448804421254648</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8616388765476286</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.19569594618141342</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>2.919730844358817</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.03562090159706864</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.05558898325224722</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.11119623355208941</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>146.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6354850895456553</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6818943045839947</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6603768988492198</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5502267726056612</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.3493150684931505</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.0673361345823384</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>146.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5926887808627602</v>
+        <v>0.26345494169265665</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6318150706460522</v>
+        <v>0.4089491614734026</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.5943220118052644</v>
+        <v>0.3319574948320952</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.4951652887387326</v>
+        <v>0.24590887116575963</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.958904109589041</v>
+        <v>0.9794520547945206</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.1257286518687206</v>
+        <v>0.1423535221608892</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>146.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.6042106906121781</v>
+        <v>0.5488185470270731</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6590854677097776</v>
+        <v>0.5791015716795987</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6413840725343449</v>
+        <v>0.5492990924783075</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5167472593165806</v>
+        <v>0.4390270047118316</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.4657534246575343</v>
+        <v>3.3493150684931505</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.038330115346977</v>
+        <v>1.0673361345823384</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>146.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.5931176123570686</v>
+        <v>0.5249966477862684</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6334836142310312</v>
+        <v>0.58006459473674</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6120136947950342</v>
+        <v>0.542694743966807</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.4835235568302459</v>
+        <v>0.40497439011283903</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.8698630136986303</v>
+        <v>3.958904109589041</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.2499031611048195</v>
+        <v>1.1257286518687206</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>146.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.5567843409443456</v>
+        <v>0.5857327927448659</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.49359919418031084</v>
+        <v>0.5701204786543674</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5174553418447592</v>
+        <v>0.592687595414396</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.4064077911892497</v>
+        <v>0.5476835820125864</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.7808219178082192</v>
+        <v>0.22602739726027396</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.5778341798498674</v>
+        <v>0.419696901226809</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>146.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.5427349717905487</v>
+        <v>0.647427207919008</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.47843629809754434</v>
+        <v>0.6184498551215509</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.501183632512437</v>
+        <v>0.6522654959817326</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.37940105964456244</v>
+        <v>0.4999478505555132</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.8493150684931506</v>
+        <v>0.7808219178082192</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.6706078421090338</v>
+        <v>1.5778341798498674</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>146.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.4566498148461644</v>
+        <v>0.631275668048263</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.431472529114571</v>
+        <v>0.603437646810791</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.3843562583175997</v>
+        <v>0.6381747835190239</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.31974995492808783</v>
+        <v>0.4687884492846093</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.958904109589041</v>
+        <v>0.8493150684931506</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.317661001502111</v>
+        <v>1.6706078421090338</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>146.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.4401122808514998</v>
+        <v>0.34915239053327446</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.39905562570661</v>
+        <v>0.43129928270060636</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.3470859119885666</v>
+        <v>0.37446484613315223</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.26380128630448807</v>
+        <v>0.3180219107456159</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>3.1780821917808217</v>
+        <v>0.9246575342465754</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.6386913681637776</v>
+        <v>0.26485172008597346</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>146.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.39779833192945324</v>
+        <v>0.4918830923251998</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.40505726032515693</v>
+        <v>0.49354224311959394</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.31660621591286503</v>
+        <v>0.46761282750491456</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.23805391430558898</v>
+        <v>0.3436627830015389</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.5753424657534247</v>
+        <v>2.958904109589041</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.4566641931356497</v>
+        <v>1.317661001502111</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>146.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5276156072817683</v>
+        <v>0.4771650490915917</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5339272219590411</v>
+        <v>0.4576039959436506</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.46148129082318123</v>
+        <v>0.41497817146174715</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.3962362300815228</v>
+        <v>0.2853909103466288</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.3013698630136985</v>
+        <v>3.1780821917808217</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.3563127653422444</v>
+        <v>1.6386913681637776</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>146.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5713223991104397</v>
+        <v>0.381018209841967</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.5885490273007921</v>
+        <v>0.34252779276320405</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.5608873216663638</v>
+        <v>0.2545078479618836</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.45669003318530677</v>
+        <v>0.20076348548942577</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.315068493150685</v>
+        <v>1.5753424657534247</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.2635659700995336</v>
+        <v>1.4566641931356497</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>146.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.4931827904434763</v>
+        <v>0.48682314168514873</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5101695020557383</v>
+        <v>0.4566048158659883</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.47058267545849175</v>
+        <v>0.3765704717236404</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.3755700071969566</v>
+        <v>0.33299608486615</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.3013698630136985</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.3563127653422444</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>146.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.57501649485215</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.5478039378264778</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5210798981011301</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.4470348267990575</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.315068493150685</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.2635659700995336</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>146.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.5100287000421228</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5002107924291214</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.46572360641648125</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.3807926973435161</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>2.0547945205479454</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.18485163871384</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.02054794520547945</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.08904109589041095</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.0</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.363013698630137</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.4657534246575342</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.06164383561643835</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.02054794520547945</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.00684931506849315</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.0410958904109589</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.2808219178082192</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.22602739726027396</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.4246575342465753</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.0136986301369863</v>
+        <v>0.02054794520547945</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.0684931506849315</v>
+        <v>0.9794520547945206</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.02054794520547945</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.3356164383561644</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.4589041095890411</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.10273972602739725</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.0136986301369863</v>
+        <v>0.02054794520547945</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.03424657534246575</v>
+        <v>0.08904109589041095</v>
       </c>
       <c r="D46" t="n" s="111">
+        <v>0.0</v>
+      </c>
+      <c r="E46" t="n" s="112">
+        <v>0.363013698630137</v>
+      </c>
+      <c r="F46" t="n" s="113">
+        <v>0.4657534246575342</v>
+      </c>
+      <c r="G46" t="n" s="114">
         <v>0.06164383561643835</v>
-      </c>
-      <c r="E46" t="n" s="112">
-        <v>0.3219178082191781</v>
-      </c>
-      <c r="F46" t="n" s="113">
-        <v>0.0958904109589041</v>
-      </c>
-      <c r="G46" t="n" s="114">
-        <v>0.4726027397260274</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.773972602739726</v>
+        <v>0.02054794520547945</v>
       </c>
       <c r="C47" t="n" s="110">
+        <v>0.00684931506849315</v>
+      </c>
+      <c r="D47" t="n" s="111">
         <v>0.0410958904109589</v>
       </c>
-      <c r="D47" t="n" s="111">
-        <v>0.0</v>
-      </c>
       <c r="E47" t="n" s="112">
-        <v>0.0410958904109589</v>
+        <v>0.2808219178082192</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.10273972602739725</v>
+        <v>0.22602739726027396</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.0410958904109589</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.773972602739726</v>
       </c>
       <c r="C48" t="n" s="110">
+        <v>0.22602739726027396</v>
+      </c>
+      <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
-      <c r="D48" t="n" s="111">
-        <v>0.0410958904109589</v>
-      </c>
       <c r="E48" t="n" s="112">
-        <v>0.06164383561643835</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.03424657534246575</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.08904109589041095</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.07534246575342465</v>
+        <v>0.773972602739726</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.1232876712328767</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.0136986301369863</v>
+        <v>0.0</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.3904109589041096</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.3493150684931507</v>
+        <v>0.10273972602739725</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.04794520547945205</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.07534246575342465</v>
+        <v>0.773972602739726</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.0821917808219178</v>
+        <v>0.0</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.23972602739726026</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.11643835616438356</v>
+        <v>0.06164383561643835</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.1643835616438356</v>
+        <v>0.03424657534246575</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.3219178082191781</v>
+        <v>0.08904109589041095</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.3561643835616438</v>
+        <v>0.07534246575342465</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.18493150684931506</v>
+        <v>0.9246575342465754</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.08904109589041095</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.2671232876712329</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.10273972602739725</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.1780821917808219</v>
+        <v>0.07534246575342465</v>
       </c>
       <c r="C52" t="n" s="110">
         <v>0.1232876712328767</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.0684931506849315</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.4794520547945205</v>
+        <v>0.3904109589041096</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.1506849315068493</v>
+        <v>0.3493150684931507</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.04794520547945205</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.1506849315068493</v>
+        <v>0.07534246575342465</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.0684931506849315</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.2602739726027397</v>
+        <v>0.23972602739726026</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.3561643835616438</v>
+        <v>0.11643835616438356</v>
       </c>
       <c r="F53" t="n" s="113">
         <v>0.1643835616438356</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.3219178082191781</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.1780821917808219</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.06164383561643835</v>
+        <v>0.18493150684931506</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.363013698630137</v>
+        <v>0.08904109589041095</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.3219178082191781</v>
+        <v>0.2671232876712329</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.07534246575342465</v>
+        <v>0.10273972602739725</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.1780821917808219</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.1232876712328767</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.0684931506849315</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.4794520547945205</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.1506849315068493</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.1506849315068493</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.0684931506849315</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.2602739726027397</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.3561643835616438</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.1643835616438356</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.1780821917808219</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.06164383561643835</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.363013698630137</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.3219178082191781</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.07534246575342465</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8453433085323577</v>
+        <v>0.8773183169046224</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8474488986379685</v>
+        <v>0.9814774967785312</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8392772683196983</v>
+        <v>0.9783399119350054</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.5813789165519667</v>
+        <v>0.9464174560224702</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>5.555180467867074</v>
+        <v>52.98838310585009</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.021093226221760443</v>
+        <v>0.003260412022698909</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.660958904109589</v>
+        <v>0.6187214611872146</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.9283558538636618</v>
+        <v>1.2085200258645081</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.5807077329368586</v>
+        <v>0.9439934746077876</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.7989446387308546</v>
+        <v>0.9872257152693473</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.7997706586154621</v>
+        <v>0.9880412318810605</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.753867574698505</v>
+        <v>0.9763651079555964</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.5710776536685143</v>
+        <v>0.9763651079555964</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>3.9942730325397835</v>
+        <v>82.62065306846071</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.028572619321995636</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.0200165640728527</v>
-      </c>
+        <v>0.0020441204222468503</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.5500333149069029</v>
+        <v>0.9763651079555964</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8247991628974548</v>
+        <v>0.617017294714709</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8290658099491951</v>
+        <v>0.9711899622484526</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7786291584645543</v>
+        <v>0.9439934746077877</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6178443595834758</v>
+        <v>0.9439934746077876</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>4.850204688148002</v>
+        <v>33.71012459698305</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.025101224656081316</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.01019710572760145</v>
-      </c>
+        <v>0.011046080780619607</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.6113821509668145</v>
+        <v>0.9439934746077876</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.7955607476635514</v>
+        <v>0.6268841928537539</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.7998706134669772</v>
+        <v>0.9577328275756183</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7325415214444495</v>
+        <v>0.9188937855040266</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.5712305674154488</v>
+        <v>0.9188937855040267</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>3.9967674279308953</v>
+        <v>22.659022892743856</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.029438798743162704</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.004128996723646664</v>
-      </c>
+        <v>0.013605670062159915</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5500333149069029</v>
+        <v>0.9188937855040267</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.795330798769654</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.7960146543658904</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.740695257691348</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.5653630855404282</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>3.902312942586124</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.029612164760049638</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.011800406844833595</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.6113821509668145</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>146.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9506398325948887</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9718109618785389</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9452018719048961</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9373525188043262</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.22602739726027396</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.419696901226809</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>146.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8285395061884239</v>
+        <v>0.9914645415779919</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8375995997152949</v>
+        <v>0.9827995567071331</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7657305868304917</v>
+        <v>0.9776131830500515</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.6949203794063376</v>
+        <v>0.9736157277745552</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.3493150684931505</v>
+        <v>0.7808219178082192</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.0673361345823384</v>
+        <v>1.5778341798498674</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>146.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.7966136558549142</v>
+        <v>0.9949748839687631</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.7952523543900609</v>
+        <v>0.9913196802029588</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7000853254232654</v>
+        <v>0.9910359294431339</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.6323782270525152</v>
+        <v>0.9828840380302748</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.958904109589041</v>
+        <v>0.8493150684931506</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.1257286518687206</v>
+        <v>1.6706078421090338</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>146.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.832107977287728</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8374611363399438</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7846932270996356</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7057507974683448</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.4657534246575343</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.038330115346977</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>146.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8547219543971312</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8427741403144949</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7846788911626081</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.7064556448365928</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.8698630136986303</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.2499031611048195</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.773972602739726</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.22602739726027396</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.773972602739726</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.10273972602739725</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.02054794520547945</v>
+        <v>0.773972602739726</v>
       </c>
       <c r="C27" t="n" s="225">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="226">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="E27" t="n" s="227">
+        <v>0.06164383561643835</v>
+      </c>
+      <c r="F27" t="n" s="228">
+        <v>0.03424657534246575</v>
+      </c>
+      <c r="G27" t="n" s="229">
         <v>0.08904109589041095</v>
       </c>
-      <c r="D27" t="n" s="226">
-        <v>0.0</v>
-      </c>
-      <c r="E27" t="n" s="227">
-        <v>0.363013698630137</v>
-      </c>
-      <c r="F27" t="n" s="228">
-        <v>0.4657534246575342</v>
-      </c>
-      <c r="G27" t="n" s="229">
-        <v>0.06164383561643835</v>
-      </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.02054794520547945</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.00684931506849315</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.0410958904109589</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.2808219178082192</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.22602739726027396</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.4246575342465753</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.0136986301369863</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.0684931506849315</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.02054794520547945</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.3356164383561644</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.4589041095890411</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.10273972602739725</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.0136986301369863</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.03424657534246575</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.06164383561643835</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.3219178082191781</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.0958904109589041</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.4726027397260274</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.8206627189114277</v>
+        <v>0.7073142266459929</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.8320994509860193</v>
+        <v>0.8404054544848195</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.7124745781552486</v>
+        <v>0.787877724365842</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.7124745781552488</v>
+        <v>0.6370621620501845</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>4.955906671375641</v>
+        <v>5.265878302870198</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.028327248065426407</v>
+        <v>0.02109453024749996</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>3.0684931506849313</v>
+        <v>2.353881278538813</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.3691554620506423</v>
+        <v>0.9718037128484813</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.7124745781552487</v>
+        <v>0.643204514142067</v>
       </c>
     </row>
     <row r="7">
@@ -5950,22 +5947,24 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.7124745781552487</v>
+        <v>0.8206627189114277</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.7124745781552487</v>
+        <v>0.8320994509860193</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.5076200245174994</v>
+        <v>0.7124745781552486</v>
       </c>
       <c r="E11" t="n" s="291">
-        <v>0.7124745781552487</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.7124745781552487</v>
-      </c>
+        <v>0.7124745781552488</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>4.955906671375641</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.028327248065426407</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.7124745781552487</v>
       </c>
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.5076200245174994</v>
+        <v>0.29786551115390814</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.7124745781552487</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.5076200245174994</v>
-      </c>
+        <v>0.7142459059319008</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.5555073938532379</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.555507393853238</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>2.499512415600548</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.03091949644972333</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.7124745781552487</v>
+        <v>0.5555073938532379</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.3981149858623938</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.7828660505815253</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.643204514142067</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.643204514142067</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>3.6054520846610427</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.03042953139206945</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.643204514142067</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>146.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9075620014103715</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9253309078797834</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7810552485812858</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.7124745781552487</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.958904109589041</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.317661001502111</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>146.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9412705152197246</v>
+        <v>0.6937897605168311</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9253309078797834</v>
+        <v>0.8417838695234435</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.7810552485812858</v>
+        <v>0.7037591063914113</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.7124745781552485</v>
+        <v>0.6419397666137905</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.9246575342465754</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.26485172008597346</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>146.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.9108632156848165</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.9018792568770414</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8418728815692689</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.7435365045613685</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.958904109589041</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.317661001502111</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>146.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9345571837605343</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8683041345545808</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7728148395925467</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.7230979553668246</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>3.1780821917808217</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.6386913681637776</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.07534246575342465</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.9246575342465754</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.07534246575342465</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.1232876712328767</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.0136986301369863</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.3904109589041096</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.3493150684931507</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.04794520547945205</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.07534246575342465</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.0821917808219178</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.23972602739726026</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.11643835616438356</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.1643835616438356</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.3219178082191781</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8521035130837069</v>
+        <v>0.6485725018782871</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8531146223888073</v>
+        <v>0.776669487858865</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.7438534303800521</v>
+        <v>0.7104347505726343</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.7438534303800521</v>
+        <v>0.5368704035170874</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>5.808029609638959</v>
+        <v>3.4776685031199177</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.02436726289307776</v>
+        <v>0.026211423203841813</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.184931506849315</v>
+        <v>2.762557077625571</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.1432164223714523</v>
+        <v>0.6892262351601879</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.7438534303800522</v>
+        <v>0.5111240286405702</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.7438534303800522</v>
+        <v>0.7823416231461453</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.7438534303800522</v>
+        <v>0.7830170843199893</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.5533179258881711</v>
+        <v>0.6434084441378247</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.7438534303800522</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.7438534303800522</v>
-      </c>
+        <v>0.6434084441378247</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>3.608657768590044</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.03594009577508236</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.7438534303800522</v>
+        <v>0.6434084441378247</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.5533179258881711</v>
+        <v>0.22574450772986188</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.7438534303800522</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.5533179258881711</v>
-      </c>
+        <v>0.6764819021511888</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.5111240286405703</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.51112402864057</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>2.0910171846625</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.027644326637649735</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.7438534303800522</v>
+        <v>0.5111240286405702</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.21353711790393026</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.6264479055170582</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.4560787377728671</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.4560787377728672</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>1.6770027922990665</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.030581352318343396</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.45607873777286717</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>146.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9381084298976791</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9337701618653416</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8053481719940213</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.7438534303800522</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.315068493150685</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.2635659700995336</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>146.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9292901494873308</v>
+        <v>0.582551728035463</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9337701618653416</v>
+        <v>0.7886989492030085</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8053481719940213</v>
+        <v>0.5974657332191383</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.7438534303800522</v>
+        <v>0.5342616208069716</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>2.0547945205479454</v>
+        <v>0.9794520547945206</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.18485163871384</v>
+        <v>0.1423535221608892</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>146.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.8978976592379839</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.841734956105762</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.7303194018619407</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.6551139118393051</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.3493150684931505</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.0673361345823384</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>146.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9117577282841501</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.8638039384227618</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.7745403865717526</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.6666165042767103</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.958904109589041</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.1257286518687206</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.1506849315068493</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.0684931506849315</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.2602739726027397</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.3561643835616438</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.1643835616438356</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.02054794520547945</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9794520547945206</v>
+      </c>
+      <c r="D25" t="n" s="456">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.1780821917808219</v>
-      </c>
-      <c r="C24" t="n" s="455">
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.02054794520547945</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.08904109589041095</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.363013698630137</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.4657534246575342</v>
+      </c>
+      <c r="G26" t="n" s="459">
         <v>0.06164383561643835</v>
       </c>
-      <c r="D24" t="n" s="456">
-        <v>0.363013698630137</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.3219178082191781</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.07534246575342465</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.02054794520547945</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.00684931506849315</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.2808219178082192</v>
+      </c>
+      <c r="F27" t="n" s="458">
+        <v>0.22602739726027396</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.4246575342465753</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9872257152693473</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9880412318810605</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9763651079555964</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9763651079555964</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>82.62065306846071</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.0020441204222468503</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.815068493150685</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.6146032913318933</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9763651079555964</v>
+      <c r="A6" t="n" s="491">
+        <v>0.6417025687538467</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.6428123605243516</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.4736355842237876</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.4736355842237874</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.7996489505291966</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.05911166394214812</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.9383561643835616</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.2075772424197195</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.4736355842237875</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9763651079555964</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9763651079555964</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9532888240331433</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9763651079555964</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9763651079555964</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9763651079555964</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.4736355842237875</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.4736355842237875</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.2243306666430087</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.4736355842237875</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.4736355842237875</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.4736355842237875</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9532888240331433</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9763651079555964</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9532888240331433</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9763651079555964</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.2243306666430087</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.4736355842237875</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.2243306666430087</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.4736355842237875</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>146.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9937293585333389</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9940737165712602</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9822560592810664</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9763651079555964</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.7808219178082192</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.5778341798498674</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8691212903005049</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.858380913180095</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.5907479373077812</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.47363558422378743</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.5753424657534247</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.4566641931356497</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>146.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9944083784213297</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9940737165712602</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9822560592810664</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9763651079555964</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.8493150684931506</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.6706078421090338</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8472504654756919</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.858380913180095</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.5907479373077811</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.47363558422378743</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.3013698630136985</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.3563127653422444</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.773972602739726</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.0410958904109589</v>
-      </c>
-      <c r="D23" t="n" s="570">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.3561643835616438</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.18493150684931506</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.08904109589041095</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.2671232876712329</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.10273972602739725</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
-      <c r="E23" t="n" s="571">
-        <v>0.0410958904109589</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.10273972602739725</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.0410958904109589</v>
-      </c>
-      <c r="H23" t="n" s="574">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.773972602739726</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.0</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.0410958904109589</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.06164383561643835</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.03424657534246575</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.08904109589041095</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.1780821917808219</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.1232876712328767</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.0684931506849315</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.4794520547945205</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.1506849315068493</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.6417025687538467</v>
+        <v>0.8521035130837069</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.6428123605243516</v>
+        <v>0.8531146223888073</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.4736355842237876</v>
+        <v>0.7438534303800521</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.4736355842237874</v>
+        <v>0.7438534303800521</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.7996489505291966</v>
+        <v>5.808029609638959</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.05911166394214812</v>
+        <v>0.02436726289307776</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.9383561643835616</v>
+        <v>2.184931506849315</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.2075772424197195</v>
+        <v>1.1432164223714523</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.4736355842237875</v>
+        <v>0.7438534303800522</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.4736355842237875</v>
+        <v>0.7438534303800522</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.4736355842237875</v>
+        <v>0.7438534303800522</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.2243306666430087</v>
+        <v>0.5533179258881711</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.4736355842237875</v>
+        <v>0.7438534303800522</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.4736355842237875</v>
+        <v>0.7438534303800522</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.4736355842237875</v>
+        <v>0.7438534303800522</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.2243306666430087</v>
+        <v>0.5533179258881711</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.4736355842237875</v>
+        <v>0.7438534303800522</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.2243306666430087</v>
+        <v>0.5533179258881711</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.4736355842237875</v>
+        <v>0.7438534303800522</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>146.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8691212903005049</v>
+        <v>0.9381084298976791</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.858380913180095</v>
+        <v>0.9337701618653416</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.5907479373077812</v>
+        <v>0.8053481719940213</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.47363558422378743</v>
+        <v>0.7438534303800522</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.5753424657534247</v>
+        <v>2.315068493150685</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.4566641931356497</v>
+        <v>1.2635659700995336</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>146.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8472504654756919</v>
+        <v>0.9292901494873308</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.858380913180095</v>
+        <v>0.9337701618653416</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.5907479373077811</v>
+        <v>0.8053481719940213</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.47363558422378743</v>
+        <v>0.7438534303800522</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.3013698630136985</v>
+        <v>2.0547945205479454</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.3563127653422444</v>
+        <v>1.18485163871384</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
+        <v>0.1506849315068493</v>
+      </c>
+      <c r="C23" t="n" s="684">
+        <v>0.0684931506849315</v>
+      </c>
+      <c r="D23" t="n" s="685">
+        <v>0.2602739726027397</v>
+      </c>
+      <c r="E23" t="n" s="686">
         <v>0.3561643835616438</v>
       </c>
-      <c r="C23" t="n" s="684">
-        <v>0.18493150684931506</v>
-      </c>
-      <c r="D23" t="n" s="685">
-        <v>0.08904109589041095</v>
-      </c>
-      <c r="E23" t="n" s="686">
-        <v>0.2671232876712329</v>
-      </c>
       <c r="F23" t="n" s="687">
-        <v>0.10273972602739725</v>
+        <v>0.1643835616438356</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
         <v>0.1780821917808219</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.1232876712328767</v>
+        <v>0.06164383561643835</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.0684931506849315</v>
+        <v>0.363013698630137</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.4794520547945205</v>
+        <v>0.3219178082191781</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.1506849315068493</v>
+        <v>0.07534246575342465</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.7690992312315545</v>
+        <v>0.7290891363537958</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.7869340169782495</v>
+        <v>0.7641803643443609</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.8858486010267662</v>
+        <v>0.87495105989239</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.26972020719560086</v>
+        <v>0.24474316607251273</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>3.693381767552806</v>
+        <v>3.2405289840251976</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.029812180572818838</v>
+        <v>0.03272530601344178</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.452054794520548</v>
+        <v>1.8390410958904109</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.7494567391607108</v>
+        <v>0.6570963596655267</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.18539623741675607</v>
+        <v>0.1766970290773834</v>
       </c>
     </row>
     <row r="7">
@@ -7421,86 +7592,86 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7312485604164428</v>
+        <v>0.7104325873362445</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7451645349248676</v>
+        <v>0.7335441145177757</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8584302581817214</v>
+        <v>0.8457619233206888</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.2452260924271093</v>
+        <v>0.23423588127118775</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>2.924100594496033</v>
+        <v>2.7529664551797324</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.03479425714789018</v>
+        <v>0.03585089987570743</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.047279956361482356</v>
+        <v>0.045822598627173944</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.17699819486619173</v>
+        <v>0.17825296336207447</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7461058981233244</v>
+        <v>0.6813190831085533</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.7629032061068408</v>
+        <v>0.7278403447897344</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8695879656693236</v>
+        <v>0.841321436556999</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.26336300782462335</v>
+        <v>0.22907675013100157</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>3.217686724395865</v>
+        <v>2.674313884721149</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.03303408544973593</v>
+        <v>0.038328071933819874</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.048890044314187996</v>
+        <v>0.04500044180907841</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.19339384023282102</v>
+        <v>0.1754422605815007</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7375676345566424</v>
+        <v>0.6878594431628714</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.7506491807766694</v>
+        <v>0.7291527341360609</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8575503178026526</v>
+        <v>0.8389110634201937</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.25065030655403964</v>
+        <v>0.23025065379215148</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.01041393453114</v>
+        <v>2.6921177579926265</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.033909234415809106</v>
+        <v>0.037396006615724675</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.045084636993980486</v>
+        <v>0.04380303865311554</v>
       </c>
       <c r="I13" t="n" s="753">
         <v>0.17982972840119188</v>
@@ -7508,205 +7679,205 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7446590515608801</v>
+        <v>0.7340218257923061</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.7607286453498855</v>
+        <v>0.763604206166141</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8615621433375256</v>
+        <v>0.8773141020839346</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.2610446291064292</v>
+        <v>0.2641163162365088</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>3.1793552824670375</v>
+        <v>3.2301937093805004</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.03304192127432164</v>
+        <v>0.033438006786467155</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.04447192852403246</v>
+        <v>0.06838649194324418</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.19339384023282102</v>
+        <v>0.18046654735036793</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7437174817898022</v>
+        <v>0.6926888816489996</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.7643727960492025</v>
+        <v>0.728875613604865</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8576749841710569</v>
+        <v>0.8506138892096524</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.2649456237893421</v>
+        <v>0.2300021276895744</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>3.243992133475451</v>
+        <v>2.688343985932001</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.03329669496662939</v>
+        <v>0.036819490619794885</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.05042620942242868</v>
+        <v>0.07031804959391716</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.17982972840119188</v>
+        <v>0.15974917563309715</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.753982742186029</v>
+        <v>0.7112918454002203</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.7754511779811466</v>
+        <v>0.7431874932126485</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8657706573484428</v>
+        <v>0.8599831275735805</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.2773043167126313</v>
+        <v>0.2433090456707338</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>3.453374508978891</v>
+        <v>2.8938913548631424</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.03209735982991355</v>
+        <v>0.0347610472737538</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.04921783866967184</v>
+        <v>0.0693208123261791</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.21971662930663666</v>
+        <v>0.17827379411650082</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7550699928212491</v>
+        <v>0.7338377801328813</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.7807269738106699</v>
+        <v>0.7675309715878185</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8380332724951135</v>
+        <v>0.8775161989826487</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.28346941032976686</v>
+        <v>0.2683907242947259</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>3.5605244629430888</v>
+        <v>3.301648296249341</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.03125930162118981</v>
+        <v>0.03128445973302406</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.03683491974360363</v>
+        <v>0.06813730576184021</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.21971662930663666</v>
+        <v>0.17825296336207447</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7604866037496834</v>
+        <v>0.7173094565264604</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.7822142592084137</v>
+        <v>0.7577628680084612</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8395772315352689</v>
+        <v>0.8737435954841333</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.2852416853024817</v>
+        <v>0.2579269639412171</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>3.5916688409686413</v>
+        <v>3.128186260209393</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.03050078273162307</v>
+        <v>0.03375722701768863</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.036471924419348656</v>
+        <v>0.0726547972537348</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.23130657501207424</v>
+        <v>0.18046654735036793</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.7716240897334059</v>
+        <v>0.692602979445907</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.7866394108475857</v>
+        <v>0.7405958366664596</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.8878170096762151</v>
+        <v>0.8431705271705288</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.29060691318177</v>
+        <v>0.24082590256178435</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>3.6869011937609963</v>
+        <v>2.854988243632025</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.02972173124372673</v>
+        <v>0.0369631971142234</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.04977512217851356</v>
+        <v>0.06904788377786057</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.1912369892970018</v>
+        <v>0.16496993943881896</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7537765135311827</v>
+        <v>0.703870713549964</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.7737449243501567</v>
+        <v>0.7492959758797797</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.8804034823409921</v>
+        <v>0.8507082735616689</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.27535008672781514</v>
+        <v>0.24929729513624238</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>3.419790350019018</v>
+        <v>2.9887672465938144</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.03205909277534077</v>
+        <v>0.035661781304304044</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.0531988566975831</v>
+        <v>0.06874475897812285</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.19339384023282102</v>
+        <v>0.16710466637650312</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>146.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6978713120187181</v>
+        <v>0.6429793383141004</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7360649243019866</v>
+        <v>0.6327628856520326</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.7093558671042116</v>
+        <v>0.6583074006120915</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.6128361212287713</v>
+        <v>0.6031249970705012</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.3493150684931505</v>
+        <v>0.22602739726027396</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.0673361345823384</v>
+        <v>0.419696901226809</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>146.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.5845647585612647</v>
+        <v>0.6914538656005286</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6245383544356934</v>
+        <v>0.6655816116733302</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.5746730099124575</v>
+        <v>0.7031367401102114</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.47197536222540293</v>
+        <v>0.5298459516504399</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.958904109589041</v>
+        <v>0.7808219178082192</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.1257286518687206</v>
+        <v>1.5778341798498674</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>146.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.6536909906937176</v>
+        <v>0.680758425238791</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.7027106309980794</v>
+        <v>0.6581140708057248</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.6809742715307318</v>
+        <v>0.6976187128709113</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5627198421572569</v>
+        <v>0.5031853184397704</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.4657534246575343</v>
+        <v>0.8493150684931506</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.038330115346977</v>
+        <v>1.6706078421090338</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>146.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.5984681778050763</v>
+        <v>0.2888031729043781</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6387944073765721</v>
+        <v>0.44268479267906014</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6099121497003802</v>
+        <v>0.34641093927675226</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.47436132139898407</v>
+        <v>0.26876253136326717</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.8698630136986303</v>
+        <v>0.9794520547945206</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.2499031611048195</v>
+        <v>0.1423535221608892</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>146.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.6052254288710853</v>
+        <v>0.6166389238838489</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6148066152676916</v>
+        <v>0.6596950172573639</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.5819625185592598</v>
+        <v>0.6223595062006163</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.48090206818155523</v>
+        <v>0.49974413628809805</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.315068493150685</v>
+        <v>3.3493150684931505</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.2635659700995336</v>
+        <v>1.0673361345823384</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>146.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.5295428864998516</v>
+        <v>0.5084386234188892</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.5388111882859792</v>
+        <v>0.5750458615090593</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.4935092885948054</v>
+        <v>0.5193342496799347</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.4011127210921793</v>
+        <v>0.36455734757675845</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>2.0547945205479454</v>
+        <v>3.958904109589041</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.18485163871384</v>
+        <v>1.1257286518687206</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>146.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.5771769835855395</v>
+        <v>0.4547935031945024</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.5009011176397903</v>
+        <v>0.4154940461843339</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.5242928046741622</v>
+        <v>0.3122043951795225</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.40959160435051245</v>
+        <v>0.253217029126767</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.7808219178082192</v>
+        <v>1.5753424657534247</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.5778341798498674</v>
+        <v>1.4566641931356497</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>146.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.5675951848201174</v>
+        <v>0.5121347357844275</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.49000313723713296</v>
+        <v>0.48205705357125717</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.5125620805586057</v>
+        <v>0.38302870025829483</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.3861815037700323</v>
+        <v>0.33533704547975984</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.8493150684931506</v>
+        <v>2.3013698630136985</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.6706078421090338</v>
+        <v>1.3563127653422444</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>146.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.45817150570600257</v>
+        <v>0.6205110347875246</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.45701155907660124</v>
+        <v>0.5908418533437126</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.3566852632142538</v>
+        <v>0.5577092828310357</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.28452631219515584</v>
+        <v>0.479258730379056</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.5753424657534247</v>
+        <v>2.315068493150685</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.4566641931356497</v>
+        <v>1.2635659700995336</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>146.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.5502978047224</v>
+        <v>0.5570632080668497</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.5508280369153925</v>
+        <v>0.5369528739079311</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.4662723931173098</v>
+        <v>0.49346702330587044</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.4045170475033464</v>
+        <v>0.4131307993371481</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.3013698630136985</v>
+        <v>2.0547945205479454</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.3563127653422444</v>
+        <v>1.18485163871384</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.02054794520547945</v>
+        <v>0.773972602739726</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.08904109589041095</v>
+        <v>0.22602739726027396</v>
       </c>
       <c r="D39" t="n" s="799">
         <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.363013698630137</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.4657534246575342</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.06164383561643835</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.02054794520547945</v>
+        <v>0.773972602739726</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.00684931506849315</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="D40" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="n" s="800">
         <v>0.0410958904109589</v>
       </c>
-      <c r="E40" t="n" s="800">
-        <v>0.2808219178082192</v>
-      </c>
       <c r="F40" t="n" s="801">
-        <v>0.22602739726027396</v>
+        <v>0.10273972602739725</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.4246575342465753</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.0136986301369863</v>
+        <v>0.773972602739726</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.0684931506849315</v>
+        <v>0.0</v>
       </c>
       <c r="D41" t="n" s="799">
-        <v>0.02054794520547945</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.3356164383561644</v>
+        <v>0.06164383561643835</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.4589041095890411</v>
+        <v>0.03424657534246575</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.10273972602739725</v>
+        <v>0.08904109589041095</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.0136986301369863</v>
+        <v>0.02054794520547945</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.03424657534246575</v>
+        <v>0.9794520547945206</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.06164383561643835</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.3219178082191781</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.0958904109589041</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.4726027397260274</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.1506849315068493</v>
+        <v>0.02054794520547945</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.0684931506849315</v>
+        <v>0.08904109589041095</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.2602739726027397</v>
+        <v>0.0</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.3561643835616438</v>
+        <v>0.363013698630137</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.1643835616438356</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.06164383561643835</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.1780821917808219</v>
+        <v>0.02054794520547945</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.06164383561643835</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.363013698630137</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.3219178082191781</v>
+        <v>0.2808219178082192</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.07534246575342465</v>
+        <v>0.22602739726027396</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.773972602739726</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.0410958904109589</v>
+        <v>0.18493150684931506</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.0</v>
+        <v>0.08904109589041095</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.0410958904109589</v>
+        <v>0.2671232876712329</v>
       </c>
       <c r="F45" t="n" s="801">
         <v>0.10273972602739725</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.0410958904109589</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.773972602739726</v>
+        <v>0.1780821917808219</v>
       </c>
       <c r="C46" t="n" s="798">
+        <v>0.1232876712328767</v>
+      </c>
+      <c r="D46" t="n" s="799">
+        <v>0.0684931506849315</v>
+      </c>
+      <c r="E46" t="n" s="800">
+        <v>0.4794520547945205</v>
+      </c>
+      <c r="F46" t="n" s="801">
+        <v>0.1506849315068493</v>
+      </c>
+      <c r="G46" t="n" s="802">
         <v>0.0</v>
-      </c>
-      <c r="D46" t="n" s="799">
-        <v>0.0410958904109589</v>
-      </c>
-      <c r="E46" t="n" s="800">
-        <v>0.06164383561643835</v>
-      </c>
-      <c r="F46" t="n" s="801">
-        <v>0.03424657534246575</v>
-      </c>
-      <c r="G46" t="n" s="802">
-        <v>0.08904109589041095</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
+        <v>0.1506849315068493</v>
+      </c>
+      <c r="C47" t="n" s="798">
+        <v>0.0684931506849315</v>
+      </c>
+      <c r="D47" t="n" s="799">
+        <v>0.2602739726027397</v>
+      </c>
+      <c r="E47" t="n" s="800">
         <v>0.3561643835616438</v>
       </c>
-      <c r="C47" t="n" s="798">
-        <v>0.18493150684931506</v>
-      </c>
-      <c r="D47" t="n" s="799">
-        <v>0.08904109589041095</v>
-      </c>
-      <c r="E47" t="n" s="800">
-        <v>0.2671232876712329</v>
-      </c>
       <c r="F47" t="n" s="801">
-        <v>0.10273972602739725</v>
+        <v>0.1643835616438356</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
         <v>0.1780821917808219</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.1232876712328767</v>
+        <v>0.06164383561643835</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.0684931506849315</v>
+        <v>0.363013698630137</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.4794520547945205</v>
+        <v>0.3219178082191781</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.1506849315068493</v>
+        <v>0.07534246575342465</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
